--- a/fonte de dados.xlsx
+++ b/fonte de dados.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -715,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/fonte de dados.xlsx
+++ b/fonte de dados.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t xml:space="preserve">Mandato </t>
   </si>
@@ -34,9 +33,6 @@
     <t xml:space="preserve">Atendimento das demandas de auditoria do BNDES </t>
   </si>
   <si>
-    <t>Planilha</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comex back - liquidação acc/ace comex </t>
   </si>
   <si>
@@ -46,9 +42,6 @@
     <t xml:space="preserve">Comex back - cobrança documentária exportação </t>
   </si>
   <si>
-    <t>\\sp0000sr055\SP5459FS201\CEOPC_COMEX\CEOPC06\COBRANÇA E CARTA DE CRÉDITO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Comex midlle - satisfação atendimento middle </t>
   </si>
   <si>
@@ -64,9 +57,6 @@
     <t xml:space="preserve">Tempestividade análise bndes </t>
   </si>
   <si>
-    <t>Informações GEPOC – Sistema: SIAF</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validação SIGCB </t>
   </si>
   <si>
@@ -80,9 +70,6 @@
   </si>
   <si>
     <t>Parametrização de garantias</t>
-  </si>
-  <si>
-    <t>Informações GEOPC</t>
   </si>
   <si>
     <t xml:space="preserve">declare @varDataInicio as varchar(10) 
@@ -168,12 +155,36 @@
   and month(data_atendimento) = month(getdate()) - 1
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">\\sp0000sr055\SP5459FS201\CEOPC_COMEX\CEOPC06\COBRANÇA E CARTA DE CRÉDITO </t>
+  </si>
+  <si>
+    <t>Tipo de Dados</t>
+  </si>
+  <si>
+    <t>Mensal</t>
+  </si>
+  <si>
+    <t>Banco DB5624_geopt_wfg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informações GEPOC </t>
+  </si>
+  <si>
+    <t>SIAF &gt; relatórios CNBNDES &gt;Indicador de tratamento de demandas</t>
+  </si>
+  <si>
+    <t>mensal</t>
+  </si>
+  <si>
+    <t>Planilha de Excel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,12 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9.5"/>
       <color rgb="FF0000FF"/>
       <name val="Consolas"/>
@@ -232,6 +237,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -281,15 +300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -330,10 +340,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -346,72 +391,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -714,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,9 +765,10 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="110.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,124 +778,148 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="E1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10">
+      <c r="D3" s="19"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="C7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10">
-        <v>3.5</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="C8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="D8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="20">
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="23">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="C10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="E10" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
